--- a/data/TERA (TRY).xlsx
+++ b/data/TERA (TRY).xlsx
@@ -5474,6 +5474,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>2267158341</v>
+      </c>
       <c r="D108">
         <v>740433883.8032163</v>
       </c>
